--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -175,76 +175,157 @@
     <t>{business.remark}</t>
   </si>
   <si>
+    <t>单号</t>
+  </si>
+  <si>
+    <t>跟踪号</t>
+  </si>
+  <si>
+    <t>RefNo</t>
+  </si>
+  <si>
+    <t>客户代码</t>
+  </si>
+  <si>
+    <t>目的国家</t>
+  </si>
+  <si>
+    <t>产品代码</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>客户下单重(单位)</t>
+  </si>
+  <si>
+    <t>仓库核重重量(单位)</t>
+  </si>
+  <si>
+    <t>计费重(单位)</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>合计费用</t>
+  </si>
+  <si>
+    <t>入库处理费</t>
+  </si>
+  <si>
+    <t>出库处理费</t>
+  </si>
+  <si>
+    <t>包材操作费</t>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>处理费</t>
+  </si>
+  <si>
+    <t>偏远附加费</t>
+  </si>
+  <si>
+    <t>燃油费</t>
+  </si>
+  <si>
+    <t>退件费</t>
+  </si>
+  <si>
+    <t>包裹销毁费</t>
+  </si>
+  <si>
+    <t>其它费</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>{bill.businessCategory}</t>
+  </si>
+  <si>
+    <t>{bill.orderNo}</t>
+  </si>
+  <si>
+    <t>{bill.traceId}</t>
+  </si>
+  <si>
+    <t>{bill.refNo}</t>
+  </si>
+  <si>
+    <t>{bill.cusCode}</t>
+  </si>
+  <si>
+    <t>{bill.orderType}</t>
+  </si>
+  <si>
+    <t>{bill.warehouseCode}</t>
+  </si>
+  <si>
+    <t>{bill.destinationDelivery}</t>
+  </si>
+  <si>
+    <t>{bill.sku}</t>
+  </si>
+  <si>
+    <t>{bill.productName}</t>
+  </si>
+  <si>
+    <t>{bill.forecastWeight}</t>
+  </si>
+  <si>
+    <t>{bill.weight}</t>
+  </si>
+  <si>
+    <t>{bill.calcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.specifications}</t>
+  </si>
+  <si>
+    <t>{bill.currencyCode}</t>
+  </si>
+  <si>
+    <t>{bill.totalAmount}</t>
+  </si>
+  <si>
+    <t>{bill.warehoussFee}</t>
+  </si>
+  <si>
+    <t>{bill.exWarehourseFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageFee}</t>
+  </si>
+  <si>
+    <t>{bill.freightFee}</t>
+  </si>
+  <si>
+    <t>{bill.handerFee}</t>
+  </si>
+  <si>
+    <t>{bill.remoteFee}</t>
+  </si>
+  <si>
+    <t>{bill.fuelFee}</t>
+  </si>
+  <si>
+    <t>{bill.returnFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageDestrueFee}</t>
+  </si>
+  <si>
+    <t>{bill.otherFee}</t>
+  </si>
+  <si>
+    <t>{bill.createTime}</t>
+  </si>
+  <si>
     <t>资金账流水号</t>
-  </si>
-  <si>
-    <t>单号</t>
-  </si>
-  <si>
-    <t>跟踪号</t>
-  </si>
-  <si>
-    <t>RefNo</t>
-  </si>
-  <si>
-    <t>客户代码</t>
-  </si>
-  <si>
-    <t>目的国家</t>
-  </si>
-  <si>
-    <t>产品代码</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>客户下单重(单位)</t>
-  </si>
-  <si>
-    <t>仓库核重重量(单位)</t>
-  </si>
-  <si>
-    <t>计费重(单位)</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>合计费用</t>
-  </si>
-  <si>
-    <t>入库处理费</t>
-  </si>
-  <si>
-    <t>出库处理费</t>
-  </si>
-  <si>
-    <t>包材操作费</t>
-  </si>
-  <si>
-    <t>运费</t>
-  </si>
-  <si>
-    <t>处理费</t>
-  </si>
-  <si>
-    <t>偏远附加费</t>
-  </si>
-  <si>
-    <t>燃油费</t>
-  </si>
-  <si>
-    <t>退件费</t>
-  </si>
-  <si>
-    <t>包裹销毁费</t>
-  </si>
-  <si>
-    <t>其它费</t>
-  </si>
-  <si>
-    <t>下单时间</t>
   </si>
   <si>
     <t>结算时间</t>
@@ -421,8 +502,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -458,6 +539,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="28"/>
       <color indexed="8"/>
       <name val="等线"/>
@@ -467,13 +555,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -625,13 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF004597"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF004597"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,67 +1243,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,8 +1735,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1671,110 +1752,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -1859,25 +1940,25 @@
       <c r="H15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2080,31 +2161,31 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2122,35 +2203,52 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.675" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
+    <col min="12" max="12" width="21.95" customWidth="1"/>
+    <col min="13" max="13" width="25.1" customWidth="1"/>
+    <col min="14" max="14" width="24.45" customWidth="1"/>
+    <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
+    <col min="16" max="16" width="15.2166666666667" customWidth="1"/>
+    <col min="17" max="17" width="15.325" customWidth="1"/>
+    <col min="18" max="18" width="18.3666666666667" customWidth="1"/>
+    <col min="19" max="19" width="19.8833333333333" customWidth="1"/>
+    <col min="20" max="20" width="20.75" customWidth="1"/>
+    <col min="21" max="21" width="17.7083333333333" customWidth="1"/>
+    <col min="22" max="22" width="22.6083333333333" customWidth="1"/>
+    <col min="23" max="23" width="18.15" customWidth="1"/>
+    <col min="24" max="24" width="20.975" customWidth="1"/>
+    <col min="25" max="25" width="18.5833333333333" customWidth="1"/>
+    <col min="26" max="26" width="11.625" customWidth="1"/>
+    <col min="27" max="27" width="12.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:29">
+    <row r="1" ht="13.5" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2163,13 +2261,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>55</v>
@@ -2190,10 +2288,10 @@
         <v>60</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -2228,59 +2326,108 @@
       <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="C2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -2291,25 +2438,24 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2320,25 +2466,24 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -2349,25 +2494,24 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -2378,25 +2522,24 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -2407,25 +2550,24 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -2436,25 +2578,24 @@
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -2465,25 +2606,24 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2494,25 +2634,24 @@
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-    </row>
-    <row r="11" spans="1:27">
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2523,14 +2662,13 @@
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="K12" s="5"/>
-      <c r="P12" s="7"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="5"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -2541,14 +2679,13 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="G13" s="13"/>
-      <c r="K13" s="5"/>
-      <c r="P13" s="7"/>
+      <c r="F13" s="15"/>
+      <c r="J13" s="5"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2559,14 +2696,13 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="K14" s="5"/>
-      <c r="P14" s="7"/>
+      <c r="F14" s="15"/>
+      <c r="J14" s="5"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2577,14 +2713,13 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="K15" s="5"/>
-      <c r="P15" s="7"/>
+      <c r="F15" s="15"/>
+      <c r="J15" s="5"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -2595,10 +2730,10 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-    </row>
-    <row r="16" spans="16:27">
-      <c r="P16" s="7"/>
+    </row>
+    <row r="16" spans="15:26">
+      <c r="O16" s="7"/>
+      <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2609,10 +2744,10 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-    </row>
-    <row r="17" spans="16:27">
-      <c r="P17" s="7"/>
+    </row>
+    <row r="17" spans="15:26">
+      <c r="O17" s="7"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -2623,10 +2758,10 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-    </row>
-    <row r="18" spans="16:27">
-      <c r="P18" s="7"/>
+    </row>
+    <row r="18" spans="15:26">
+      <c r="O18" s="7"/>
+      <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -2637,10 +2772,10 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-    </row>
-    <row r="19" spans="16:27">
-      <c r="P19" s="7"/>
+    </row>
+    <row r="19" spans="15:26">
+      <c r="O19" s="7"/>
+      <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -2651,10 +2786,10 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-    </row>
-    <row r="20" spans="16:27">
-      <c r="P20" s="7"/>
+    </row>
+    <row r="20" spans="15:26">
+      <c r="O20" s="7"/>
+      <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -2665,10 +2800,10 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-    </row>
-    <row r="21" spans="16:27">
-      <c r="P21" s="7"/>
+    </row>
+    <row r="21" spans="15:26">
+      <c r="O21" s="7"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -2679,10 +2814,10 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-    </row>
-    <row r="22" spans="16:27">
-      <c r="P22" s="7"/>
+    </row>
+    <row r="22" spans="15:26">
+      <c r="O22" s="7"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2693,10 +2828,10 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-    </row>
-    <row r="23" spans="16:27">
-      <c r="P23" s="7"/>
+    </row>
+    <row r="23" spans="15:26">
+      <c r="O23" s="7"/>
+      <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -2707,10 +2842,10 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="16:27">
-      <c r="P24" s="7"/>
+    </row>
+    <row r="24" spans="15:26">
+      <c r="O24" s="7"/>
+      <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -2721,10 +2856,10 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="16:27">
-      <c r="P25" s="7"/>
+    </row>
+    <row r="25" spans="15:26">
+      <c r="O25" s="7"/>
+      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
@@ -2735,10 +2870,10 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-    </row>
-    <row r="26" spans="16:27">
-      <c r="P26" s="7"/>
+    </row>
+    <row r="26" spans="15:26">
+      <c r="O26" s="7"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2749,33 +2884,32 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-    </row>
-    <row r="27" spans="17:27">
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-    </row>
-    <row r="28" spans="17:27">
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
+    </row>
+    <row r="27" spans="16:26">
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+    </row>
+    <row r="28" spans="16:26">
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2816,19 +2950,19 @@
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -2837,110 +2971,110 @@
         <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="11"/>
@@ -2959,7 +3093,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5"/>
       <c r="K3" s="5"/>
@@ -2977,7 +3111,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5"/>
       <c r="K4" s="5"/>
@@ -2995,7 +3129,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="K5" s="5"/>
@@ -3013,7 +3147,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5"/>
       <c r="K6" s="5"/>
@@ -3031,7 +3165,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B7" s="5"/>
       <c r="K7" s="5"/>
@@ -3049,7 +3183,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5"/>
       <c r="K8" s="5"/>
@@ -3067,7 +3201,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5"/>
       <c r="K9" s="5"/>
@@ -3085,7 +3219,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5"/>
       <c r="K10" s="5"/>
@@ -3103,7 +3237,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5"/>
       <c r="K11" s="5"/>
@@ -3121,7 +3255,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5"/>
       <c r="K12" s="5"/>
@@ -3352,88 +3486,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3464,19 +3598,19 @@
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -3485,67 +3619,67 @@
         <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:27">
@@ -3579,7 +3713,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -3612,7 +3746,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:29">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
@@ -3645,7 +3779,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:29">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -3678,7 +3812,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:29">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
@@ -3711,7 +3845,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:29">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -3744,7 +3878,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:29">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -3777,7 +3911,7 @@
     </row>
     <row r="9" ht="14.25" spans="1:29">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
@@ -3810,7 +3944,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:29">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
@@ -3843,7 +3977,7 @@
     </row>
     <row r="11" ht="14.25" spans="1:29">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -3876,7 +4010,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:29">
       <c r="A12" s="5" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
@@ -4252,10 +4386,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4264,10 +4398,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4276,22 +4410,22 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
@@ -4538,10 +4672,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4550,10 +4684,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4562,22 +4696,22 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -325,172 +325,133 @@
     <t>{bill.createTime}</t>
   </si>
   <si>
-    <t>资金账流水号</t>
+    <t>扣费日期</t>
+  </si>
+  <si>
+    <t>结算周期</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>仓库名称</t>
+  </si>
+  <si>
+    <t>库存编码</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>体积</t>
+  </si>
+  <si>
+    <t>阶梯SKU单价</t>
+  </si>
+  <si>
+    <t>阶梯周期/系数/在库SKU数量</t>
+  </si>
+  <si>
+    <t>费用明细(阶梯SKU单价*阶梯系数*阶梯在库SKU数量)</t>
+  </si>
+  <si>
+    <t>总数量</t>
+  </si>
+  <si>
+    <t>0-30天在仓库存</t>
+  </si>
+  <si>
+    <t>31-60天在仓库存</t>
+  </si>
+  <si>
+    <t>61-90天在仓库存</t>
+  </si>
+  <si>
+    <t>91-120天在仓库存</t>
+  </si>
+  <si>
+    <t>121-150天在仓库存</t>
+  </si>
+  <si>
+    <t>151-180天在仓库存</t>
+  </si>
+  <si>
+    <t>181-210天在仓库存</t>
+  </si>
+  <si>
+    <t>211-240天在仓库存</t>
+  </si>
+  <si>
+    <t>241-270天在仓库存</t>
+  </si>
+  <si>
+    <t>271-300天在仓库存</t>
+  </si>
+  <si>
+    <t>301-330天在仓库存</t>
+  </si>
+  <si>
+    <t>331-9999天在仓库存</t>
+  </si>
+  <si>
+    <t>计费数量</t>
+  </si>
+  <si>
+    <t>基础仓租费用</t>
+  </si>
+  <si>
+    <t>阶梯仓租费用</t>
+  </si>
+  <si>
+    <t>旺季仓租</t>
+  </si>
+  <si>
+    <t>资金流水号</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>产品类别</t>
+  </si>
+  <si>
+    <t>产品类型</t>
+  </si>
+  <si>
+    <t>费用类型</t>
+  </si>
+  <si>
+    <t>附注</t>
   </si>
   <si>
     <t>结算时间</t>
   </si>
   <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>CKCNWLV622072900002155</t>
-  </si>
-  <si>
-    <t>523000014433350036963254</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CNWLV6</t>
-  </si>
-  <si>
-    <t>云仓一件代发</t>
-  </si>
-  <si>
-    <t>深莞仓</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>COD服务</t>
-  </si>
-  <si>
-    <t>增值消费</t>
-  </si>
-  <si>
-    <t>退费</t>
-  </si>
-  <si>
-    <t>优惠</t>
-  </si>
-  <si>
-    <t>赔偿</t>
-  </si>
-  <si>
-    <t>补收</t>
-  </si>
-  <si>
-    <t>余额转换</t>
-  </si>
-  <si>
-    <t>提现</t>
-  </si>
-  <si>
-    <t>物流消费</t>
-  </si>
-  <si>
-    <t>转账</t>
-  </si>
-  <si>
-    <t>仓库处理费</t>
-  </si>
-  <si>
-    <t>扣费日期</t>
-  </si>
-  <si>
-    <t>结算周期</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>仓库名称</t>
-  </si>
-  <si>
-    <t>库存编码</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
-    <t>阶梯SKU单价</t>
-  </si>
-  <si>
-    <t>阶梯周期/系数/在库SKU数量</t>
-  </si>
-  <si>
-    <t>费用明细(阶梯SKU单价*阶梯系数*阶梯在库SKU数量)</t>
-  </si>
-  <si>
-    <t>总数量</t>
-  </si>
-  <si>
-    <t>0-30天在仓库存</t>
-  </si>
-  <si>
-    <t>31-60天在仓库存</t>
-  </si>
-  <si>
-    <t>61-90天在仓库存</t>
-  </si>
-  <si>
-    <t>91-120天在仓库存</t>
-  </si>
-  <si>
-    <t>121-150天在仓库存</t>
-  </si>
-  <si>
-    <t>151-180天在仓库存</t>
-  </si>
-  <si>
-    <t>181-210天在仓库存</t>
-  </si>
-  <si>
-    <t>211-240天在仓库存</t>
-  </si>
-  <si>
-    <t>241-270天在仓库存</t>
-  </si>
-  <si>
-    <t>271-300天在仓库存</t>
-  </si>
-  <si>
-    <t>301-330天在仓库存</t>
-  </si>
-  <si>
-    <t>331-9999天在仓库存</t>
-  </si>
-  <si>
-    <t>计费数量</t>
-  </si>
-  <si>
-    <t>基础仓租费用</t>
-  </si>
-  <si>
-    <t>阶梯仓租费用</t>
-  </si>
-  <si>
-    <t>旺季仓租</t>
-  </si>
-  <si>
-    <t>资金流水号</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>产品类别</t>
-  </si>
-  <si>
-    <t>产品类型</t>
-  </si>
-  <si>
-    <t>费用类型</t>
-  </si>
-  <si>
-    <t>附注</t>
+    <t>{bill.serialNumber}</t>
+  </si>
+  <si>
+    <t>{bill.no}</t>
+  </si>
+  <si>
+    <t>{bill.amount}</t>
+  </si>
+  <si>
+    <t>{bill.productCategory}</t>
+  </si>
+  <si>
+    <t>{bill.productCode}</t>
+  </si>
+  <si>
+    <t>{bill.chargeType}</t>
+  </si>
+  <si>
+    <t>{bill.remark}</t>
+  </si>
+  <si>
+    <t>{bill.paymentTime}</t>
   </si>
 </sst>
 </file>
@@ -502,8 +463,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -520,13 +481,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -535,13 +503,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -853,19 +814,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -877,6 +825,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1148,7 +1109,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,109 +1180,106 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,451 +1699,451 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="7" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="20.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="37"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="37"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="30"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="30"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2205,17 +2163,17 @@
   <sheetPr/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="8" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
@@ -2224,7 +2182,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
     <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
     <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
     <col min="12" max="12" width="21.95" customWidth="1"/>
     <col min="13" max="13" width="25.1" customWidth="1"/>
@@ -2248,46 +2206,46 @@
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -2329,104 +2287,791 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="J12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="J13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="J14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="J15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+    </row>
+    <row r="16" spans="15:26">
+      <c r="O16" s="8"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+    </row>
+    <row r="17" spans="15:26">
+      <c r="O17" s="8"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+    </row>
+    <row r="18" spans="15:26">
+      <c r="O18" s="8"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+    </row>
+    <row r="19" spans="15:26">
+      <c r="O19" s="8"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+    </row>
+    <row r="20" spans="15:26">
+      <c r="O20" s="8"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+    </row>
+    <row r="21" spans="15:26">
+      <c r="O21" s="8"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+    </row>
+    <row r="22" spans="15:26">
+      <c r="O22" s="8"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+    </row>
+    <row r="23" spans="15:26">
+      <c r="O23" s="8"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+    </row>
+    <row r="24" spans="15:26">
+      <c r="O24" s="8"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+    </row>
+    <row r="25" spans="15:26">
+      <c r="O25" s="8"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26" spans="15:26">
+      <c r="O26" s="8"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27" spans="16:26">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="16:26">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" spans="1:27">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:27">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -2440,21 +3085,8 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -2468,21 +3100,8 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -2496,21 +3115,8 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -2524,21 +3130,8 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -2552,21 +3145,8 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2580,21 +3160,8 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -2608,21 +3175,8 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -2636,21 +3190,8 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="5"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -2664,10 +3205,8 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="J12" s="5"/>
-      <c r="O12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -2681,10 +3220,8 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="5"/>
-      <c r="F13" s="15"/>
-      <c r="J13" s="5"/>
-      <c r="O13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -2698,10 +3235,8 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="5"/>
-      <c r="F14" s="15"/>
-      <c r="J14" s="5"/>
-      <c r="O14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -2715,10 +3250,8 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="J15" s="5"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -2731,8 +3264,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" spans="15:26">
-      <c r="O16" s="7"/>
+    <row r="16" spans="16:26">
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -2745,8 +3277,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" spans="15:26">
-      <c r="O17" s="7"/>
+    <row r="17" spans="16:26">
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2759,8 +3290,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="15:26">
-      <c r="O18" s="7"/>
+    <row r="18" spans="16:26">
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2773,8 +3303,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="15:26">
-      <c r="O19" s="7"/>
+    <row r="19" spans="16:26">
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -2787,8 +3316,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="15:26">
-      <c r="O20" s="7"/>
+    <row r="20" spans="16:26">
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -2801,8 +3329,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="15:26">
-      <c r="O21" s="7"/>
+    <row r="21" spans="16:26">
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2815,8 +3342,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="15:26">
-      <c r="O22" s="7"/>
+    <row r="22" spans="16:26">
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -2829,8 +3355,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="15:26">
-      <c r="O23" s="7"/>
+    <row r="23" spans="16:26">
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -2843,8 +3368,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="15:26">
-      <c r="O24" s="7"/>
+    <row r="24" spans="16:26">
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -2857,8 +3381,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="15:26">
-      <c r="O25" s="7"/>
+    <row r="25" spans="16:26">
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -2870,584 +3393,6 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-    </row>
-    <row r="26" spans="15:26">
-      <c r="O26" s="7"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-    </row>
-    <row r="27" spans="16:26">
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-    </row>
-    <row r="28" spans="16:26">
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC25"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
-    <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="14.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="10.375" style="1" customWidth="1"/>
-    <col min="24" max="25" width="9" style="1"/>
-    <col min="26" max="26" width="9.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" spans="1:29">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="17:27">
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="17:27">
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="17:27">
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-    </row>
-    <row r="19" spans="17:27">
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="17:27">
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-    </row>
-    <row r="21" spans="17:27">
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-    </row>
-    <row r="22" spans="17:27">
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-    </row>
-    <row r="23" spans="17:27">
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-    </row>
-    <row r="24" spans="17:27">
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-    </row>
-    <row r="25" spans="17:27">
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3486,88 +3431,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3579,143 +3524,188 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="O1" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:27">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:29">
-      <c r="A3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="5"/>
+    </row>
+    <row r="2" customFormat="1" ht="14.25" spans="1:27">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:27">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3723,8 +3713,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3741,14 +3731,10 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:29">
-      <c r="A4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="5"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:27">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3756,8 +3742,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3774,14 +3760,10 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:29">
-      <c r="A5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="5"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:27">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3789,8 +3771,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3807,14 +3789,10 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:29">
-      <c r="A6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:27">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3822,8 +3800,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3840,14 +3818,10 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:29">
-      <c r="A7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="5"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:27">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3855,8 +3829,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3873,14 +3847,10 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:29">
-      <c r="A8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:27">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3888,8 +3858,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3906,14 +3876,10 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:29">
-      <c r="A9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:27">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3921,8 +3887,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3939,14 +3905,10 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:29">
-      <c r="A10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:27">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3954,8 +3916,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3972,14 +3934,10 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:29">
-      <c r="A11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="5"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:27">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3987,8 +3945,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4005,14 +3963,10 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:29">
-      <c r="A12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="5"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:27">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4020,8 +3974,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4038,12 +3992,10 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:29">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:27">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4051,8 +4003,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4069,12 +4021,10 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:29">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:27">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4082,8 +4032,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4100,12 +4050,10 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:29">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:27">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4113,8 +4061,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4131,12 +4079,10 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:29">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:27">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4144,8 +4090,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4162,12 +4108,10 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:29">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:27">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4175,8 +4119,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4193,12 +4137,10 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:29">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:27">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4206,8 +4148,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4224,12 +4166,10 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:29">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:27">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4237,8 +4177,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4255,12 +4195,10 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:29">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:27">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4268,8 +4206,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4286,12 +4224,10 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:29">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:27">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4299,8 +4235,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4317,12 +4253,10 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:29">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:27">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4330,8 +4264,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4348,8 +4282,6 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4362,8 +4294,8 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4374,7 +4306,8 @@
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
@@ -4386,10 +4319,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4398,10 +4331,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4410,231 +4343,259 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4649,7 +4610,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4672,10 +4633,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4684,10 +4645,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4696,218 +4657,246 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="7:7">
-      <c r="G14" s="4"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -325,6 +325,72 @@
     <t>{bill.createTime}</t>
   </si>
   <si>
+    <t>资金账流水号</t>
+  </si>
+  <si>
+    <t>结算时间</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>CKCNWLV622072900002155</t>
+  </si>
+  <si>
+    <t>523000014433350036963254</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CNWLV6</t>
+  </si>
+  <si>
+    <t>云仓一件代发</t>
+  </si>
+  <si>
+    <t>深莞仓</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COD服务</t>
+  </si>
+  <si>
+    <t>增值消费</t>
+  </si>
+  <si>
+    <t>退费</t>
+  </si>
+  <si>
+    <t>优惠</t>
+  </si>
+  <si>
+    <t>赔偿</t>
+  </si>
+  <si>
+    <t>补收</t>
+  </si>
+  <si>
+    <t>余额转换</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
+    <t>物流消费</t>
+  </si>
+  <si>
+    <t>转账</t>
+  </si>
+  <si>
+    <t>仓库处理费</t>
+  </si>
+  <si>
     <t>扣费日期</t>
   </si>
   <si>
@@ -425,33 +491,6 @@
   </si>
   <si>
     <t>附注</t>
-  </si>
-  <si>
-    <t>结算时间</t>
-  </si>
-  <si>
-    <t>{bill.serialNumber}</t>
-  </si>
-  <si>
-    <t>{bill.no}</t>
-  </si>
-  <si>
-    <t>{bill.amount}</t>
-  </si>
-  <si>
-    <t>{bill.productCategory}</t>
-  </si>
-  <si>
-    <t>{bill.productCode}</t>
-  </si>
-  <si>
-    <t>{bill.chargeType}</t>
-  </si>
-  <si>
-    <t>{bill.remark}</t>
-  </si>
-  <si>
-    <t>{bill.paymentTime}</t>
   </si>
 </sst>
 </file>
@@ -463,8 +502,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -481,20 +520,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="10"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -503,6 +535,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -814,6 +853,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -825,19 +877,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1109,7 +1148,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,106 +1219,109 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,451 +1741,451 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="20.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="7" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="29"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="29"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="29"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="29"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="29"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="29"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="29"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="29"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="29"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="29"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="29"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="29"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="33"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2163,17 +2205,17 @@
   <sheetPr/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="7" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
@@ -2182,7 +2224,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
     <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
     <col min="12" max="12" width="21.95" customWidth="1"/>
     <col min="13" max="13" width="25.1" customWidth="1"/>
@@ -2206,46 +2248,46 @@
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -2287,791 +2329,104 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
-      <c r="F12" s="13"/>
-      <c r="J12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
-      <c r="F13" s="13"/>
-      <c r="J13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
-      <c r="F14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
-      <c r="F15" s="13"/>
-      <c r="J15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-    </row>
-    <row r="16" spans="15:26">
-      <c r="O16" s="8"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-    </row>
-    <row r="17" spans="15:26">
-      <c r="O17" s="8"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="15:26">
-      <c r="O18" s="8"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-    </row>
-    <row r="19" spans="15:26">
-      <c r="O19" s="8"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20" spans="15:26">
-      <c r="O20" s="8"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21" spans="15:26">
-      <c r="O21" s="8"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-    </row>
-    <row r="22" spans="15:26">
-      <c r="O22" s="8"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-    </row>
-    <row r="23" spans="15:26">
-      <c r="O23" s="8"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="15:26">
-      <c r="O24" s="8"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-    </row>
-    <row r="25" spans="15:26">
-      <c r="O25" s="8"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-    </row>
-    <row r="26" spans="15:26">
-      <c r="O26" s="8"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-    </row>
-    <row r="27" spans="16:26">
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-    </row>
-    <row r="28" spans="16:26">
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA25"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="28.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="9.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" spans="1:27">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:27">
-      <c r="A2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -3085,8 +2440,21 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -3100,8 +2468,21 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3115,8 +2496,21 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="7"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -3130,8 +2524,21 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3145,8 +2552,21 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -3160,8 +2580,21 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -3175,8 +2608,21 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -3190,8 +2636,21 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -3205,8 +2664,10 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="F12" s="15"/>
+      <c r="J12" s="5"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -3220,8 +2681,10 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="F13" s="15"/>
+      <c r="J13" s="5"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -3235,8 +2698,10 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="F14" s="15"/>
+      <c r="J14" s="5"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -3250,8 +2715,10 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="F15" s="15"/>
+      <c r="J15" s="5"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3264,7 +2731,8 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" spans="16:26">
+    <row r="16" spans="15:26">
+      <c r="O16" s="7"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -3277,7 +2745,8 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" spans="16:26">
+    <row r="17" spans="15:26">
+      <c r="O17" s="7"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -3290,7 +2759,8 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="16:26">
+    <row r="18" spans="15:26">
+      <c r="O18" s="7"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -3303,7 +2773,8 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="16:26">
+    <row r="19" spans="15:26">
+      <c r="O19" s="7"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -3316,7 +2787,8 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="16:26">
+    <row r="20" spans="15:26">
+      <c r="O20" s="7"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -3329,7 +2801,8 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="16:26">
+    <row r="21" spans="15:26">
+      <c r="O21" s="7"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -3342,7 +2815,8 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="16:26">
+    <row r="22" spans="15:26">
+      <c r="O22" s="7"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -3355,7 +2829,8 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="16:26">
+    <row r="23" spans="15:26">
+      <c r="O23" s="7"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -3368,7 +2843,8 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="16:26">
+    <row r="24" spans="15:26">
+      <c r="O24" s="7"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -3381,7 +2857,8 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="16:26">
+    <row r="25" spans="15:26">
+      <c r="O25" s="7"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -3393,6 +2870,584 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="15:26">
+      <c r="O26" s="7"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="16:26">
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+    </row>
+    <row r="28" spans="16:26">
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC25"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
+    <col min="5" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="14.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" customWidth="1"/>
+    <col min="15" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="10.375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="9.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" spans="1:29">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="17:27">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="17:27">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="17:27">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="17:27">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="17:27">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="17:27">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+    </row>
+    <row r="22" spans="17:27">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="23" spans="17:27">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+    </row>
+    <row r="24" spans="17:27">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+    </row>
+    <row r="25" spans="17:27">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3431,88 +3486,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3524,188 +3579,143 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:27">
-      <c r="A2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:27">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
+      <c r="AC1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:27">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:29">
+      <c r="A3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3713,8 +3723,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3731,10 +3741,14 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:27">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:29">
+      <c r="A4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3742,8 +3756,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3760,10 +3774,14 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:27">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:29">
+      <c r="A5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3771,8 +3789,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3789,10 +3807,14 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:27">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:29">
+      <c r="A6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3800,8 +3822,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3818,10 +3840,14 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:27">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:29">
+      <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3829,8 +3855,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3847,10 +3873,14 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:27">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:29">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3858,8 +3888,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3876,10 +3906,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:27">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:29">
+      <c r="A9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3887,8 +3921,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3905,10 +3939,14 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:27">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:29">
+      <c r="A10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3916,8 +3954,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3934,10 +3972,14 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:27">
-      <c r="A11" s="7"/>
-      <c r="B11" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:29">
+      <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3945,8 +3987,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3963,10 +4005,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:27">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:29">
+      <c r="A12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3974,8 +4020,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3992,10 +4038,12 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:27">
-      <c r="A13" s="7"/>
-      <c r="B13" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:29">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4003,8 +4051,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4021,10 +4069,12 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:27">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:29">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4032,8 +4082,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4050,10 +4100,12 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:27">
-      <c r="A15" s="7"/>
-      <c r="B15" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:29">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4061,8 +4113,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4079,10 +4131,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:27">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:29">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4090,8 +4144,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4108,10 +4162,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:27">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:29">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4119,8 +4175,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4137,10 +4193,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:27">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:29">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4148,8 +4206,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4166,10 +4224,12 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:27">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:29">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4177,8 +4237,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4195,10 +4255,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:27">
-      <c r="A20" s="8"/>
-      <c r="B20" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:29">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4206,8 +4268,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4224,10 +4286,12 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:27">
-      <c r="A21" s="8"/>
-      <c r="B21" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:29">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4235,8 +4299,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4253,10 +4317,12 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:27">
-      <c r="A22" s="8"/>
-      <c r="B22" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:29">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4264,8 +4330,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4282,6 +4348,8 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4294,8 +4362,8 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4306,8 +4374,7 @@
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
@@ -4319,10 +4386,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4331,10 +4398,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4343,259 +4410,231 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" ht="14.25" spans="1:14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4610,7 +4649,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4633,10 +4672,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4645,10 +4684,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4657,246 +4696,218 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" ht="14.25" spans="7:7">
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -175,6 +175,9 @@
     <t>{business.remark}</t>
   </si>
   <si>
+    <t>资金账流水号</t>
+  </si>
+  <si>
     <t>单号</t>
   </si>
   <si>
@@ -242,90 +245,6 @@
   </si>
   <si>
     <t>下单时间</t>
-  </si>
-  <si>
-    <t>{bill.businessCategory}</t>
-  </si>
-  <si>
-    <t>{bill.orderNo}</t>
-  </si>
-  <si>
-    <t>{bill.traceId}</t>
-  </si>
-  <si>
-    <t>{bill.refNo}</t>
-  </si>
-  <si>
-    <t>{bill.cusCode}</t>
-  </si>
-  <si>
-    <t>{bill.orderType}</t>
-  </si>
-  <si>
-    <t>{bill.warehouseCode}</t>
-  </si>
-  <si>
-    <t>{bill.destinationDelivery}</t>
-  </si>
-  <si>
-    <t>{bill.sku}</t>
-  </si>
-  <si>
-    <t>{bill.productName}</t>
-  </si>
-  <si>
-    <t>{bill.forecastWeight}</t>
-  </si>
-  <si>
-    <t>{bill.weight}</t>
-  </si>
-  <si>
-    <t>{bill.calcWeight}</t>
-  </si>
-  <si>
-    <t>{bill.specifications}</t>
-  </si>
-  <si>
-    <t>{bill.currencyCode}</t>
-  </si>
-  <si>
-    <t>{bill.totalAmount}</t>
-  </si>
-  <si>
-    <t>{bill.warehoussFee}</t>
-  </si>
-  <si>
-    <t>{bill.exWarehourseFee}</t>
-  </si>
-  <si>
-    <t>{bill.packageFee}</t>
-  </si>
-  <si>
-    <t>{bill.freightFee}</t>
-  </si>
-  <si>
-    <t>{bill.handerFee}</t>
-  </si>
-  <si>
-    <t>{bill.remoteFee}</t>
-  </si>
-  <si>
-    <t>{bill.fuelFee}</t>
-  </si>
-  <si>
-    <t>{bill.returnFee}</t>
-  </si>
-  <si>
-    <t>{bill.packageDestrueFee}</t>
-  </si>
-  <si>
-    <t>{bill.otherFee}</t>
-  </si>
-  <si>
-    <t>{bill.createTime}</t>
-  </si>
-  <si>
-    <t>资金账流水号</t>
   </si>
   <si>
     <t>结算时间</t>
@@ -502,8 +421,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -539,13 +458,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28"/>
       <color indexed="8"/>
       <name val="等线"/>
@@ -555,6 +467,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -706,13 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF004597"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF004597"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,67 +1162,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1735,8 +1654,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1752,110 +1671,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -1940,25 +1859,25 @@
       <c r="H15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2161,31 +2080,31 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2203,52 +2122,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.95" customWidth="1"/>
-    <col min="13" max="13" width="25.1" customWidth="1"/>
-    <col min="14" max="14" width="24.45" customWidth="1"/>
-    <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.2166666666667" customWidth="1"/>
-    <col min="17" max="17" width="15.325" customWidth="1"/>
-    <col min="18" max="18" width="18.3666666666667" customWidth="1"/>
-    <col min="19" max="19" width="19.8833333333333" customWidth="1"/>
-    <col min="20" max="20" width="20.75" customWidth="1"/>
-    <col min="21" max="21" width="17.7083333333333" customWidth="1"/>
-    <col min="22" max="22" width="22.6083333333333" customWidth="1"/>
-    <col min="23" max="23" width="18.15" customWidth="1"/>
-    <col min="24" max="24" width="20.975" customWidth="1"/>
-    <col min="25" max="25" width="18.5833333333333" customWidth="1"/>
-    <col min="26" max="26" width="11.625" customWidth="1"/>
-    <col min="27" max="27" width="12.6" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:28">
+    <row r="1" ht="13.5" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -2261,13 +2163,13 @@
         <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>55</v>
@@ -2288,10 +2190,10 @@
         <v>60</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -2326,108 +2228,59 @@
       <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2"/>
+      <c r="AB1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="11"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="7"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -2438,24 +2291,25 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2466,24 +2320,25 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="11"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -2494,24 +2349,25 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="11"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -2522,24 +2378,25 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="11"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -2550,24 +2407,25 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="5"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="11"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -2578,24 +2436,25 @@
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="11"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -2606,24 +2465,25 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="11"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2634,24 +2494,25 @@
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="5"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2662,13 +2523,14 @@
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="J12" s="5"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="G12" s="13"/>
+      <c r="K12" s="5"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -2679,13 +2541,14 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="5"/>
-      <c r="F13" s="15"/>
-      <c r="J13" s="5"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="G13" s="13"/>
+      <c r="K13" s="5"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2696,13 +2559,14 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="5"/>
-      <c r="F14" s="15"/>
-      <c r="J14" s="5"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="G14" s="13"/>
+      <c r="K14" s="5"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2713,13 +2577,14 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="5"/>
-      <c r="F15" s="15"/>
-      <c r="J15" s="5"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="G15" s="13"/>
+      <c r="K15" s="5"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -2730,10 +2595,10 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="15:26">
-      <c r="O16" s="7"/>
-      <c r="P16" s="11"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="16:27">
+      <c r="P16" s="7"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2744,10 +2609,10 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-    </row>
-    <row r="17" spans="15:26">
-      <c r="O17" s="7"/>
-      <c r="P17" s="11"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="16:27">
+      <c r="P17" s="7"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -2758,10 +2623,10 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="15:26">
-      <c r="O18" s="7"/>
-      <c r="P18" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="16:27">
+      <c r="P18" s="7"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -2772,10 +2637,10 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="15:26">
-      <c r="O19" s="7"/>
-      <c r="P19" s="11"/>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="16:27">
+      <c r="P19" s="7"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -2786,10 +2651,10 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="15:26">
-      <c r="O20" s="7"/>
-      <c r="P20" s="11"/>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="16:27">
+      <c r="P20" s="7"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -2800,10 +2665,10 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-    </row>
-    <row r="21" spans="15:26">
-      <c r="O21" s="7"/>
-      <c r="P21" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="16:27">
+      <c r="P21" s="7"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -2814,10 +2679,10 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="15:26">
-      <c r="O22" s="7"/>
-      <c r="P22" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="16:27">
+      <c r="P22" s="7"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2828,10 +2693,10 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="15:26">
-      <c r="O23" s="7"/>
-      <c r="P23" s="11"/>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="16:27">
+      <c r="P23" s="7"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -2842,10 +2707,10 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="15:26">
-      <c r="O24" s="7"/>
-      <c r="P24" s="11"/>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="16:27">
+      <c r="P24" s="7"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -2856,10 +2721,10 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="15:26">
-      <c r="O25" s="7"/>
-      <c r="P25" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="16:27">
+      <c r="P25" s="7"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
@@ -2870,10 +2735,10 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-    </row>
-    <row r="26" spans="15:26">
-      <c r="O26" s="7"/>
-      <c r="P26" s="11"/>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="16:27">
+      <c r="P26" s="7"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2884,32 +2749,33 @@
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-    </row>
-    <row r="27" spans="16:26">
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-    </row>
-    <row r="28" spans="16:26">
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="17:27">
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+    </row>
+    <row r="28" spans="17:27">
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2950,19 +2816,19 @@
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -2971,110 +2837,110 @@
         <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="11"/>
@@ -3093,7 +2959,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5"/>
       <c r="K3" s="5"/>
@@ -3111,7 +2977,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5"/>
       <c r="K4" s="5"/>
@@ -3129,7 +2995,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5"/>
       <c r="K5" s="5"/>
@@ -3147,7 +3013,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5"/>
       <c r="K6" s="5"/>
@@ -3165,7 +3031,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5"/>
       <c r="K7" s="5"/>
@@ -3183,7 +3049,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5"/>
       <c r="K8" s="5"/>
@@ -3201,7 +3067,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5"/>
       <c r="K9" s="5"/>
@@ -3219,7 +3085,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5"/>
       <c r="K10" s="5"/>
@@ -3237,7 +3103,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5"/>
       <c r="K11" s="5"/>
@@ -3255,7 +3121,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5"/>
       <c r="K12" s="5"/>
@@ -3486,88 +3352,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3598,19 +3464,19 @@
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -3619,67 +3485,67 @@
         <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:27">
@@ -3713,7 +3579,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
@@ -3746,7 +3612,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:29">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
@@ -3779,7 +3645,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:29">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -3812,7 +3678,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:29">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="1"/>
@@ -3845,7 +3711,7 @@
     </row>
     <row r="7" ht="14.25" spans="1:29">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
@@ -3878,7 +3744,7 @@
     </row>
     <row r="8" ht="14.25" spans="1:29">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
@@ -3911,7 +3777,7 @@
     </row>
     <row r="9" ht="14.25" spans="1:29">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1"/>
@@ -3944,7 +3810,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:29">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
@@ -3977,7 +3843,7 @@
     </row>
     <row r="11" ht="14.25" spans="1:29">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
@@ -4010,7 +3876,7 @@
     </row>
     <row r="12" ht="14.25" spans="1:29">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="1"/>
@@ -4386,10 +4252,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4398,10 +4264,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4410,22 +4276,22 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
@@ -4672,10 +4538,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4684,10 +4550,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4696,22 +4562,22 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="143">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -244,6 +244,9 @@
     <t>下单时间</t>
   </si>
   <si>
+    <t>结算时间</t>
+  </si>
+  <si>
     <t>{bill.businessCategory}</t>
   </si>
   <si>
@@ -325,6 +328,9 @@
     <t>{bill.createTime}</t>
   </si>
   <si>
+    <t>{bill.paymentTime}</t>
+  </si>
+  <si>
     <t>扣费日期</t>
   </si>
   <si>
@@ -427,9 +433,6 @@
     <t>附注</t>
   </si>
   <si>
-    <t>结算时间</t>
-  </si>
-  <si>
     <t>{bill.serialNumber}</t>
   </si>
   <si>
@@ -449,9 +452,6 @@
   </si>
   <si>
     <t>{bill.remark}</t>
-  </si>
-  <si>
-    <t>{bill.paymentTime}</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -503,6 +503,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1026,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,33 +1045,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,52 +1080,55 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,10 +1143,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,29 +1155,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,19 +1226,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,13 +1250,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1282,7 +1292,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,105 +1720,105 @@
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1816,107 +1826,107 @@
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1944,16 +1954,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1962,7 +1972,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1971,7 +1981,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="29"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1980,7 +1990,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="29"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1989,74 +1999,74 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="29"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="29"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="31"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="29"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2074,7 +2084,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2083,8 +2093,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2092,58 +2102,58 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="33"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2164,11 +2174,11 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2200,9 +2210,10 @@
     <col min="25" max="25" width="18.5833333333333" customWidth="1"/>
     <col min="26" max="26" width="11.625" customWidth="1"/>
     <col min="27" max="27" width="12.6" customWidth="1"/>
+    <col min="28" max="28" width="18.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:28">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2284,89 +2295,94 @@
       <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2"/>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2878,10 +2894,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2900,10 +2916,11 @@
     <col min="25" max="25" width="9.75" style="1" customWidth="1"/>
     <col min="26" max="26" width="10" style="1" customWidth="1"/>
     <col min="27" max="27" width="14.875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:27">
+    <row r="1" ht="13.5" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2985,88 +3002,94 @@
       <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3431,88 +3454,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3524,10 +3547,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3535,9 +3558,11 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="27" max="27" width="10.9666666666667" customWidth="1"/>
+    <col min="28" max="28" width="14.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3619,88 +3644,94 @@
       <c r="AA1" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="14.25" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -4294,7 +4325,7 @@
   <sheetPr/>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4319,10 +4350,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4331,10 +4362,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4343,66 +4374,66 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
@@ -4633,10 +4664,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4645,10 +4676,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4657,66 +4688,66 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <t>{bill.orderNo}</t>
   </si>
   <si>
-    <t>{bill.traceId}</t>
+    <t>{bill.trackingNo}</t>
   </si>
   <si>
     <t>{bill.refNo}</t>
@@ -463,8 +463,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1211,7 +1211,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1220,10 +1220,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,7 +1244,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,13 +1253,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -2178,7 +2178,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2896,8 +2896,8 @@
   <sheetPr/>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3549,13 +3549,14 @@
   <sheetPr/>
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="15.2916666666667" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
     <col min="27" max="27" width="10.9666666666667" customWidth="1"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -160,7 +160,7 @@
     <t>{business.warehouse}</t>
   </si>
   <si>
-    <t>{business.chargeType}</t>
+    <t>{business.businessType}</t>
   </si>
   <si>
     <t>{business.chargeCategory}</t>
@@ -268,13 +268,13 @@
     <t>{bill.warehouseCode}</t>
   </si>
   <si>
-    <t>{bill.destinationDelivery}</t>
-  </si>
-  <si>
-    <t>{bill.sku}</t>
-  </si>
-  <si>
-    <t>{bill.productName}</t>
+    <t>{bill.country}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRule}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentService}</t>
   </si>
   <si>
     <t>{bill.forecastWeight}</t>
@@ -283,7 +283,7 @@
     <t>{bill.weight}</t>
   </si>
   <si>
-    <t>{bill.calcWeight}</t>
+    <t>{bill.resultCalcWeight}</t>
   </si>
   <si>
     <t>{bill.specifications}</t>
@@ -463,8 +463,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1211,7 +1211,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1220,10 +1220,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,7 +1244,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,13 +1253,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -2174,11 +2174,11 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2192,10 +2192,10 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
     <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.7916666666667" style="8" customWidth="1"/>
     <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
     <col min="12" max="12" width="21.95" customWidth="1"/>
-    <col min="13" max="13" width="25.1" customWidth="1"/>
+    <col min="13" max="13" width="31.4166666666667" customWidth="1"/>
     <col min="14" max="14" width="24.45" customWidth="1"/>
     <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
     <col min="16" max="16" width="15.2166666666667" customWidth="1"/>
@@ -2897,7 +2897,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2905,11 +2905,12 @@
     <col min="1" max="1" width="28.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="8" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="12" max="13" width="20.25" style="1" customWidth="1"/>
     <col min="14" max="21" width="9" style="1"/>
     <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
     <col min="23" max="24" width="9" style="1"/>
@@ -3550,15 +3551,19 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15.2916666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.3583333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.6083333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.0583333333333" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="20.575" customWidth="1"/>
     <col min="27" max="27" width="10.9666666666667" customWidth="1"/>
     <col min="28" max="28" width="14.6166666666667" customWidth="1"/>
   </cols>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -784,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -870,6 +870,36 @@
         <color indexed="8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1068,7 +1098,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,28 +1116,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,10 +1146,10 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,7 +1210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,7 +1244,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1223,10 +1253,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,7 +1277,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,13 +1286,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1283,16 +1313,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -1850,7 +1886,7 @@
       <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1863,7 +1899,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="28"/>
@@ -1874,7 +1910,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="28"/>
@@ -1885,7 +1921,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="28"/>
@@ -1896,7 +1932,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="29" t="s">
@@ -2009,8 +2045,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="30"/>
@@ -2020,59 +2056,59 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2096,8 +2132,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2105,8 +2141,8 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="4"/>
@@ -2114,8 +2150,8 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="4"/>
@@ -2123,8 +2159,8 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="4"/>
@@ -2176,7 +2212,7 @@
   <sheetPr/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -1703,16 +1703,16 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="59.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="52" style="8" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
     <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
@@ -3550,7 +3550,7 @@
   <sheetPr/>
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -274,61 +274,64 @@
     <t>{bill.shipmentRule}</t>
   </si>
   <si>
+    <t>{bill.shipmentRuleName}</t>
+  </si>
+  <si>
+    <t>{bill.forecastWeight}</t>
+  </si>
+  <si>
+    <t>{bill.weight}</t>
+  </si>
+  <si>
+    <t>{bill.resultCalcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.specifications}</t>
+  </si>
+  <si>
+    <t>{bill.currencyCode}</t>
+  </si>
+  <si>
+    <t>{bill.totalAmount}</t>
+  </si>
+  <si>
+    <t>{bill.warehoussFee}</t>
+  </si>
+  <si>
+    <t>{bill.exWarehourseFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageFee}</t>
+  </si>
+  <si>
+    <t>{bill.freightFee}</t>
+  </si>
+  <si>
+    <t>{bill.handerFee}</t>
+  </si>
+  <si>
+    <t>{bill.remoteFee}</t>
+  </si>
+  <si>
+    <t>{bill.fuelFee}</t>
+  </si>
+  <si>
+    <t>{bill.returnFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageDestrueFee}</t>
+  </si>
+  <si>
+    <t>{bill.otherFee}</t>
+  </si>
+  <si>
+    <t>{bill.createTime}</t>
+  </si>
+  <si>
+    <t>{bill.paymentTime}</t>
+  </si>
+  <si>
     <t>{bill.shipmentService}</t>
-  </si>
-  <si>
-    <t>{bill.forecastWeight}</t>
-  </si>
-  <si>
-    <t>{bill.weight}</t>
-  </si>
-  <si>
-    <t>{bill.resultCalcWeight}</t>
-  </si>
-  <si>
-    <t>{bill.specifications}</t>
-  </si>
-  <si>
-    <t>{bill.currencyCode}</t>
-  </si>
-  <si>
-    <t>{bill.totalAmount}</t>
-  </si>
-  <si>
-    <t>{bill.warehoussFee}</t>
-  </si>
-  <si>
-    <t>{bill.exWarehourseFee}</t>
-  </si>
-  <si>
-    <t>{bill.packageFee}</t>
-  </si>
-  <si>
-    <t>{bill.freightFee}</t>
-  </si>
-  <si>
-    <t>{bill.handerFee}</t>
-  </si>
-  <si>
-    <t>{bill.remoteFee}</t>
-  </si>
-  <si>
-    <t>{bill.fuelFee}</t>
-  </si>
-  <si>
-    <t>{bill.returnFee}</t>
-  </si>
-  <si>
-    <t>{bill.packageDestrueFee}</t>
-  </si>
-  <si>
-    <t>{bill.otherFee}</t>
-  </si>
-  <si>
-    <t>{bill.createTime}</t>
-  </si>
-  <si>
-    <t>{bill.paymentTime}</t>
   </si>
   <si>
     <t>扣费日期</t>
@@ -1703,7 +1706,7 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
@@ -2173,12 +2176,12 @@
   <sheetPr/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3036,7 +3039,7 @@
         <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>84</v>
@@ -3455,88 +3458,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3686,7 @@
         <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>84</v>
@@ -4356,10 +4359,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4368,10 +4371,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4380,19 +4383,19 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>73</v>
@@ -4400,13 +4403,13 @@
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>88</v>
@@ -4424,19 +4427,19 @@
         <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>101</v>
@@ -4670,10 +4673,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4682,10 +4685,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4694,19 +4697,19 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>73</v>
@@ -4714,13 +4717,13 @@
     </row>
     <row r="2" ht="30.95" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>88</v>
@@ -4738,19 +4741,19 @@
         <v>74</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>101</v>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -331,88 +331,88 @@
     <t>{bill.paymentTime}</t>
   </si>
   <si>
+    <t>扣费日期</t>
+  </si>
+  <si>
+    <t>结算周期</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>仓库名称</t>
+  </si>
+  <si>
+    <t>库存编码</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>体积</t>
+  </si>
+  <si>
+    <t>阶梯SKU单价</t>
+  </si>
+  <si>
+    <t>阶梯周期/系数/在库SKU数量</t>
+  </si>
+  <si>
+    <t>费用明细(阶梯SKU单价*阶梯系数*阶梯在库SKU数量)</t>
+  </si>
+  <si>
+    <t>总数量</t>
+  </si>
+  <si>
+    <t>0-30天在仓库存</t>
+  </si>
+  <si>
+    <t>31-60天在仓库存</t>
+  </si>
+  <si>
+    <t>61-90天在仓库存</t>
+  </si>
+  <si>
+    <t>91-120天在仓库存</t>
+  </si>
+  <si>
+    <t>121-150天在仓库存</t>
+  </si>
+  <si>
+    <t>151-180天在仓库存</t>
+  </si>
+  <si>
+    <t>181-210天在仓库存</t>
+  </si>
+  <si>
+    <t>211-240天在仓库存</t>
+  </si>
+  <si>
+    <t>241-270天在仓库存</t>
+  </si>
+  <si>
+    <t>271-300天在仓库存</t>
+  </si>
+  <si>
+    <t>301-330天在仓库存</t>
+  </si>
+  <si>
+    <t>331-9999天在仓库存</t>
+  </si>
+  <si>
+    <t>计费数量</t>
+  </si>
+  <si>
+    <t>基础仓租费用</t>
+  </si>
+  <si>
+    <t>阶梯仓租费用</t>
+  </si>
+  <si>
+    <t>旺季仓租</t>
+  </si>
+  <si>
     <t>{bill.shipmentService}</t>
-  </si>
-  <si>
-    <t>扣费日期</t>
-  </si>
-  <si>
-    <t>结算周期</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>仓库名称</t>
-  </si>
-  <si>
-    <t>库存编码</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
-    <t>阶梯SKU单价</t>
-  </si>
-  <si>
-    <t>阶梯周期/系数/在库SKU数量</t>
-  </si>
-  <si>
-    <t>费用明细(阶梯SKU单价*阶梯系数*阶梯在库SKU数量)</t>
-  </si>
-  <si>
-    <t>总数量</t>
-  </si>
-  <si>
-    <t>0-30天在仓库存</t>
-  </si>
-  <si>
-    <t>31-60天在仓库存</t>
-  </si>
-  <si>
-    <t>61-90天在仓库存</t>
-  </si>
-  <si>
-    <t>91-120天在仓库存</t>
-  </si>
-  <si>
-    <t>121-150天在仓库存</t>
-  </si>
-  <si>
-    <t>151-180天在仓库存</t>
-  </si>
-  <si>
-    <t>181-210天在仓库存</t>
-  </si>
-  <si>
-    <t>211-240天在仓库存</t>
-  </si>
-  <si>
-    <t>241-270天在仓库存</t>
-  </si>
-  <si>
-    <t>271-300天在仓库存</t>
-  </si>
-  <si>
-    <t>301-330天在仓库存</t>
-  </si>
-  <si>
-    <t>331-9999天在仓库存</t>
-  </si>
-  <si>
-    <t>计费数量</t>
-  </si>
-  <si>
-    <t>基础仓租费用</t>
-  </si>
-  <si>
-    <t>阶梯仓租费用</t>
-  </si>
-  <si>
-    <t>旺季仓租</t>
   </si>
   <si>
     <t>资金流水号</t>
@@ -466,8 +466,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1244,7 +1244,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1253,10 +1253,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,7 +1277,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,13 +1286,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1742,7 +1742,7 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -2935,8 +2935,8 @@
   <sheetPr/>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3075,7 +3075,7 @@
         <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>84</v>
@@ -3494,88 +3494,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3722,7 +3722,7 @@
         <v>82</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>84</v>
@@ -4407,7 +4407,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>132</v>
@@ -4721,7 +4721,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>132</v>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -1742,16 +1742,15 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="59.75" style="8" customWidth="1"/>
+    <col min="1" max="2" width="20.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="52" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
     <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
@@ -2935,7 +2934,7 @@
   <sheetPr/>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -187,6 +187,9 @@
     <t>客户代码</t>
   </si>
   <si>
+    <t>平台标记单号</t>
+  </si>
+  <si>
     <t>目的国家</t>
   </si>
   <si>
@@ -211,6 +214,111 @@
     <t>合计费用</t>
   </si>
   <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>处理费</t>
+  </si>
+  <si>
+    <t>偏远附加费</t>
+  </si>
+  <si>
+    <t>燃油费</t>
+  </si>
+  <si>
+    <t>退件费</t>
+  </si>
+  <si>
+    <t>包裹销毁费</t>
+  </si>
+  <si>
+    <t>其它费</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>结算时间</t>
+  </si>
+  <si>
+    <t>{bill.businessCategory}</t>
+  </si>
+  <si>
+    <t>{bill.orderNo}</t>
+  </si>
+  <si>
+    <t>{bill.trackingNo}</t>
+  </si>
+  <si>
+    <t>{bill.refNo}</t>
+  </si>
+  <si>
+    <t>{bill.cusCode}</t>
+  </si>
+  <si>
+    <t>{bill.orderType}</t>
+  </si>
+  <si>
+    <t>{bill.warehouseCode}</t>
+  </si>
+  <si>
+    <t>{bill.amazonLogisticsRouteId}</t>
+  </si>
+  <si>
+    <t>{bill.country}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRule}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRuleName}</t>
+  </si>
+  <si>
+    <t>{bill.forecastWeight}</t>
+  </si>
+  <si>
+    <t>{bill.weight}</t>
+  </si>
+  <si>
+    <t>{bill.resultCalcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.specifications}</t>
+  </si>
+  <si>
+    <t>{bill.currencyCode}</t>
+  </si>
+  <si>
+    <t>{bill.totalAmount}</t>
+  </si>
+  <si>
+    <t>{bill.freightFee}</t>
+  </si>
+  <si>
+    <t>{bill.handerFee}</t>
+  </si>
+  <si>
+    <t>{bill.remoteFee}</t>
+  </si>
+  <si>
+    <t>{bill.fuelFee}</t>
+  </si>
+  <si>
+    <t>{bill.returnFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageDestrueFee}</t>
+  </si>
+  <si>
+    <t>{bill.otherFee}</t>
+  </si>
+  <si>
+    <t>{bill.createTime}</t>
+  </si>
+  <si>
+    <t>{bill.paymentTime}</t>
+  </si>
+  <si>
     <t>入库处理费</t>
   </si>
   <si>
@@ -220,81 +328,6 @@
     <t>包材操作费</t>
   </si>
   <si>
-    <t>运费</t>
-  </si>
-  <si>
-    <t>处理费</t>
-  </si>
-  <si>
-    <t>偏远附加费</t>
-  </si>
-  <si>
-    <t>燃油费</t>
-  </si>
-  <si>
-    <t>退件费</t>
-  </si>
-  <si>
-    <t>包裹销毁费</t>
-  </si>
-  <si>
-    <t>其它费</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>结算时间</t>
-  </si>
-  <si>
-    <t>{bill.businessCategory}</t>
-  </si>
-  <si>
-    <t>{bill.orderNo}</t>
-  </si>
-  <si>
-    <t>{bill.trackingNo}</t>
-  </si>
-  <si>
-    <t>{bill.refNo}</t>
-  </si>
-  <si>
-    <t>{bill.cusCode}</t>
-  </si>
-  <si>
-    <t>{bill.orderType}</t>
-  </si>
-  <si>
-    <t>{bill.warehouseCode}</t>
-  </si>
-  <si>
-    <t>{bill.country}</t>
-  </si>
-  <si>
-    <t>{bill.shipmentRule}</t>
-  </si>
-  <si>
-    <t>{bill.shipmentRuleName}</t>
-  </si>
-  <si>
-    <t>{bill.forecastWeight}</t>
-  </si>
-  <si>
-    <t>{bill.weight}</t>
-  </si>
-  <si>
-    <t>{bill.resultCalcWeight}</t>
-  </si>
-  <si>
-    <t>{bill.specifications}</t>
-  </si>
-  <si>
-    <t>{bill.currencyCode}</t>
-  </si>
-  <si>
-    <t>{bill.totalAmount}</t>
-  </si>
-  <si>
     <t>{bill.warehoussFee}</t>
   </si>
   <si>
@@ -302,33 +335,6 @@
   </si>
   <si>
     <t>{bill.packageFee}</t>
-  </si>
-  <si>
-    <t>{bill.freightFee}</t>
-  </si>
-  <si>
-    <t>{bill.handerFee}</t>
-  </si>
-  <si>
-    <t>{bill.remoteFee}</t>
-  </si>
-  <si>
-    <t>{bill.fuelFee}</t>
-  </si>
-  <si>
-    <t>{bill.returnFee}</t>
-  </si>
-  <si>
-    <t>{bill.packageDestrueFee}</t>
-  </si>
-  <si>
-    <t>{bill.otherFee}</t>
-  </si>
-  <si>
-    <t>{bill.createTime}</t>
-  </si>
-  <si>
-    <t>{bill.paymentTime}</t>
   </si>
   <si>
     <t>扣费日期</t>
@@ -809,6 +815,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -835,19 +854,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1220,34 +1226,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -1262,40 +1268,40 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1304,7 +1310,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,19 +1748,19 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="20.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="10" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
@@ -1861,7 +1867,7 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -1969,92 +1975,92 @@
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="30"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="30"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="30"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="30"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="30"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="30"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="30"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
     </row>
@@ -2063,88 +2069,88 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="30"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="36"/>
       <c r="B34" s="38"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
     </row>
@@ -2153,7 +2159,7 @@
       <c r="B35" s="38"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
     </row>
@@ -2162,7 +2168,7 @@
       <c r="B36" s="38"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
     </row>
@@ -2209,96 +2215,93 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
     <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="23.7916666666667" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.95" customWidth="1"/>
-    <col min="13" max="13" width="31.4166666666667" customWidth="1"/>
-    <col min="14" max="14" width="24.45" customWidth="1"/>
-    <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.2166666666667" customWidth="1"/>
-    <col min="17" max="17" width="15.325" customWidth="1"/>
-    <col min="18" max="18" width="18.3666666666667" customWidth="1"/>
-    <col min="19" max="19" width="19.8833333333333" customWidth="1"/>
-    <col min="20" max="20" width="20.75" customWidth="1"/>
-    <col min="21" max="21" width="17.7083333333333" customWidth="1"/>
-    <col min="22" max="22" width="22.6083333333333" customWidth="1"/>
-    <col min="23" max="23" width="18.15" customWidth="1"/>
-    <col min="24" max="24" width="20.975" customWidth="1"/>
-    <col min="25" max="25" width="18.5833333333333" customWidth="1"/>
-    <col min="26" max="26" width="11.625" customWidth="1"/>
-    <col min="27" max="27" width="12.6" customWidth="1"/>
-    <col min="28" max="28" width="18.3583333333333" customWidth="1"/>
+    <col min="7" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="22.6083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.675" customWidth="1"/>
+    <col min="11" max="11" width="23.7916666666667" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
+    <col min="13" max="13" width="21.95" customWidth="1"/>
+    <col min="14" max="14" width="31.4166666666667" customWidth="1"/>
+    <col min="15" max="15" width="24.45" customWidth="1"/>
+    <col min="16" max="16" width="18.5833333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.2166666666667" customWidth="1"/>
+    <col min="18" max="18" width="20.75" customWidth="1"/>
+    <col min="19" max="19" width="17.7083333333333" customWidth="1"/>
+    <col min="20" max="20" width="22.6083333333333" customWidth="1"/>
+    <col min="21" max="21" width="18.15" customWidth="1"/>
+    <col min="22" max="22" width="20.975" customWidth="1"/>
+    <col min="23" max="23" width="18.5833333333333" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="12.6" customWidth="1"/>
+    <col min="26" max="26" width="18.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -2327,119 +2330,107 @@
       <c r="Y1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
@@ -2448,26 +2439,24 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -2476,26 +2465,24 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -2504,26 +2491,24 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
@@ -2532,26 +2517,24 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -2560,26 +2543,24 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
@@ -2588,26 +2569,24 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -2616,26 +2595,24 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -2644,26 +2621,24 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="14"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -2672,15 +2647,12 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="8"/>
       <c r="F12" s="13"/>
-      <c r="J12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="14"/>
+      <c r="K12" s="8"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
@@ -2689,15 +2661,12 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="8"/>
       <c r="F13" s="13"/>
-      <c r="J13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="14"/>
+      <c r="K13" s="8"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -2706,15 +2675,12 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="8"/>
       <c r="F14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="14"/>
+      <c r="K14" s="8"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
@@ -2723,15 +2689,12 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="8"/>
       <c r="F15" s="13"/>
-      <c r="J15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="14"/>
+      <c r="K15" s="8"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -2740,12 +2703,9 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-    </row>
-    <row r="16" spans="15:26">
-      <c r="O16" s="8"/>
-      <c r="P16" s="14"/>
+    </row>
+    <row r="16" spans="16:24">
+      <c r="P16" s="10"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -2754,12 +2714,9 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-    </row>
-    <row r="17" spans="15:26">
-      <c r="O17" s="8"/>
-      <c r="P17" s="14"/>
+    </row>
+    <row r="17" spans="16:24">
+      <c r="P17" s="10"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
@@ -2768,12 +2725,9 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="15:26">
-      <c r="O18" s="8"/>
-      <c r="P18" s="14"/>
+    </row>
+    <row r="18" spans="16:24">
+      <c r="P18" s="10"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -2782,12 +2736,9 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-    </row>
-    <row r="19" spans="15:26">
-      <c r="O19" s="8"/>
-      <c r="P19" s="14"/>
+    </row>
+    <row r="19" spans="16:24">
+      <c r="P19" s="10"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -2796,12 +2747,9 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20" spans="15:26">
-      <c r="O20" s="8"/>
-      <c r="P20" s="14"/>
+    </row>
+    <row r="20" spans="16:24">
+      <c r="P20" s="10"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
@@ -2810,12 +2758,9 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21" spans="15:26">
-      <c r="O21" s="8"/>
-      <c r="P21" s="14"/>
+    </row>
+    <row r="21" spans="16:24">
+      <c r="P21" s="10"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -2824,12 +2769,9 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-    </row>
-    <row r="22" spans="15:26">
-      <c r="O22" s="8"/>
-      <c r="P22" s="14"/>
+    </row>
+    <row r="22" spans="16:24">
+      <c r="P22" s="10"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -2838,12 +2780,9 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-    </row>
-    <row r="23" spans="15:26">
-      <c r="O23" s="8"/>
-      <c r="P23" s="14"/>
+    </row>
+    <row r="23" spans="16:24">
+      <c r="P23" s="10"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
@@ -2852,12 +2791,9 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="15:26">
-      <c r="O24" s="8"/>
-      <c r="P24" s="14"/>
+    </row>
+    <row r="24" spans="16:24">
+      <c r="P24" s="10"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
@@ -2866,12 +2802,9 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-    </row>
-    <row r="25" spans="15:26">
-      <c r="O25" s="8"/>
-      <c r="P25" s="14"/>
+    </row>
+    <row r="25" spans="16:24">
+      <c r="P25" s="10"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
@@ -2880,12 +2813,9 @@
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-    </row>
-    <row r="26" spans="15:26">
-      <c r="O26" s="8"/>
-      <c r="P26" s="14"/>
+    </row>
+    <row r="26" spans="16:24">
+      <c r="P26" s="10"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
@@ -2894,11 +2824,8 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-    </row>
-    <row r="27" spans="16:26">
-      <c r="P27" s="15"/>
+    </row>
+    <row r="27" spans="17:24">
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -2907,11 +2834,8 @@
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-    </row>
-    <row r="28" spans="16:26">
-      <c r="P28" s="15"/>
+    </row>
+    <row r="28" spans="17:24">
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
@@ -2920,8 +2844,6 @@
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2932,34 +2854,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="13" width="20.25" style="1" customWidth="1"/>
-    <col min="14" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="9.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="10.375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="9.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:28">
+    <row r="1" ht="13.5" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2981,480 +2905,495 @@
       <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:29">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:28">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="16:26">
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-    </row>
-    <row r="17" spans="16:26">
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="16:26">
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="16:26">
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="16:26">
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-    </row>
-    <row r="21" spans="16:26">
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="16:26">
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="16:26">
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="16:26">
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="16:26">
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="17:27">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="17:27">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="17:27">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="17:27">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="17:27">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="17:27">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+    </row>
+    <row r="22" spans="17:27">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="23" spans="17:27">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+    </row>
+    <row r="24" spans="17:27">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+    </row>
+    <row r="25" spans="17:27">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,89 +3431,89 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
-      <c r="A1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>128</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3586,27 +3525,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15.2916666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.3583333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.6083333333333" customWidth="1"/>
-    <col min="10" max="10" width="16.0583333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="20.575" customWidth="1"/>
-    <col min="27" max="27" width="10.9666666666667" customWidth="1"/>
-    <col min="28" max="28" width="14.6166666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.575" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="13.3583333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.6083333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.0583333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="20.575" customWidth="1"/>
+    <col min="28" max="28" width="10.9666666666667" customWidth="1"/>
+    <col min="29" max="29" width="14.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3628,168 +3569,174 @@
       <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:27">
-      <c r="A3" s="7"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:28">
+      <c r="A3" s="8"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3806,19 +3753,20 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:27">
-      <c r="A4" s="7"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:28">
+      <c r="A4" s="8"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3835,19 +3783,20 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:27">
-      <c r="A5" s="7"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:28">
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3864,19 +3813,20 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:27">
-      <c r="A6" s="7"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:28">
+      <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3893,19 +3843,20 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:27">
-      <c r="A7" s="7"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:28">
+      <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3922,19 +3873,20 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:27">
-      <c r="A8" s="7"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:28">
+      <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3951,19 +3903,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:27">
-      <c r="A9" s="7"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:28">
+      <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3980,19 +3933,20 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:27">
-      <c r="A10" s="7"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:28">
+      <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4009,19 +3963,20 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:27">
-      <c r="A11" s="7"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:28">
+      <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4038,19 +3993,20 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:27">
-      <c r="A12" s="7"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:28">
+      <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4067,19 +4023,20 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:27">
-      <c r="A13" s="7"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:28">
+      <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4096,19 +4053,20 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:27">
-      <c r="A14" s="7"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:28">
+      <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4125,19 +4083,20 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:27">
-      <c r="A15" s="7"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:28">
+      <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4154,19 +4113,20 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:27">
-      <c r="A16" s="8"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:28">
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4183,19 +4143,20 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:27">
-      <c r="A17" s="8"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:28">
+      <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4212,19 +4173,20 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:27">
-      <c r="A18" s="8"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:28">
+      <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4241,19 +4203,20 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:27">
-      <c r="A19" s="8"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:28">
+      <c r="A19" s="10"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4270,19 +4233,20 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:27">
-      <c r="A20" s="8"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:28">
+      <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4299,19 +4263,20 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:27">
-      <c r="A21" s="8"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:28">
+      <c r="A21" s="10"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4328,19 +4293,20 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:27">
-      <c r="A22" s="8"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:28">
+      <c r="A22" s="10"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4357,6 +4323,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4367,10 +4334,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4380,24 +4347,26 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.9" customHeight="1" spans="1:14">
+    <row r="1" ht="19.9" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4406,271 +4375,307 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="30.95" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" ht="36.95" customHeight="1" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" ht="30.95" customHeight="1" spans="1:16">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" ht="29.1" customHeight="1" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:16">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:16">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:16">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4682,10 +4687,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4695,23 +4700,25 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="50.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="50.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.9" customHeight="1" spans="1:14">
+    <row r="1" ht="19.9" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4720,258 +4727,292 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="30.95" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="7:7">
-      <c r="G14" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" ht="36.95" customHeight="1" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" ht="29.1" customHeight="1" spans="1:16">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:16">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:16">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -199,16 +199,16 @@
     <t>产品名称</t>
   </si>
   <si>
-    <t>客户下单重(单位)</t>
-  </si>
-  <si>
-    <t>仓库核重重量(单位)</t>
-  </si>
-  <si>
-    <t>计费重(单位)</t>
-  </si>
-  <si>
-    <t>规格</t>
+    <t>客户下单重(g)</t>
+  </si>
+  <si>
+    <t>仓库核重重量(g)</t>
+  </si>
+  <si>
+    <t>计费重(g)</t>
+  </si>
+  <si>
+    <t>规格(cm)</t>
   </si>
   <si>
     <t>合计费用</t>
@@ -504,13 +504,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -532,6 +525,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1155,7 +1155,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,7 +1238,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1250,7 +1250,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1265,33 +1265,36 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1301,10 +1304,10 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1867,89 +1870,89 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="39"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="39"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="39"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="39"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="24" t="s">
@@ -1998,16 +2001,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="31"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2016,7 +2019,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2025,7 +2028,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="30"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2034,7 +2037,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2043,77 +2046,77 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2128,7 +2131,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2137,8 +2140,8 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2146,31 +2149,31 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="36"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="36"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="36"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="20"/>
@@ -2217,12 +2220,12 @@
   <sheetPr/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2856,8 +2859,8 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2871,7 +2874,7 @@
     <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="1"/>
     <col min="23" max="23" width="10.375" style="1" customWidth="1"/>
@@ -2883,7 +2886,7 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:29">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3527,8 +3530,8 @@
   <sheetPr/>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4003,7 +4006,6 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8"/>
@@ -4033,7 +4035,6 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
@@ -4063,7 +4064,6 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8"/>
@@ -4093,7 +4093,6 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="8"/>
@@ -4123,7 +4122,6 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="10"/>
@@ -4153,7 +4151,6 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="10"/>
@@ -4183,7 +4180,6 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="10"/>
@@ -4213,7 +4209,6 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="10"/>
@@ -4243,7 +4238,6 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="10"/>
@@ -4273,7 +4267,6 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
@@ -4303,7 +4296,6 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
@@ -4689,7 +4681,7 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5011,7 +5003,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="9:9">
+    <row r="14" ht="14.25" spans="9:9">
       <c r="I14" s="6"/>
     </row>
   </sheetData>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1216,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,6 +1235,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1250,19 +1253,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,7 +1289,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,13 +1301,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1336,6 +1342,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1752,228 +1761,228 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="10" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="20.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="11" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="29"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="40"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="29"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1990,7 +1999,7 @@
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2001,16 +2010,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2019,7 +2028,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2028,7 +2037,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2037,7 +2046,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="31"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2046,77 +2055,77 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="31"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2131,7 +2140,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="31"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2140,8 +2149,8 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2149,58 +2158,58 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2220,17 +2229,17 @@
   <sheetPr/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="11" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
@@ -2239,7 +2248,7 @@
     <col min="7" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="22.6083333333333" customWidth="1"/>
     <col min="10" max="10" width="14.675" customWidth="1"/>
-    <col min="11" max="11" width="23.7916666666667" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.7916666666667" style="11" customWidth="1"/>
     <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
     <col min="13" max="13" width="21.95" customWidth="1"/>
     <col min="14" max="14" width="31.4166666666667" customWidth="1"/>
@@ -2333,12 +2342,12 @@
       <c r="Y1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2386,28 +2395,28 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Y2" s="4" t="s">
@@ -2418,435 +2427,435 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="8"/>
-      <c r="F12" s="13"/>
-      <c r="K12" s="8"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="K12" s="9"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="8"/>
-      <c r="F13" s="13"/>
-      <c r="K13" s="8"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="F13" s="15"/>
+      <c r="K13" s="9"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="8"/>
-      <c r="F14" s="13"/>
-      <c r="K14" s="8"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="F14" s="15"/>
+      <c r="K14" s="9"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="8"/>
-      <c r="F15" s="13"/>
-      <c r="K15" s="8"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
+      <c r="A15" s="9"/>
+      <c r="F15" s="15"/>
+      <c r="K15" s="9"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="16:24">
-      <c r="P16" s="10"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="16:24">
-      <c r="P17" s="10"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="16:24">
-      <c r="P18" s="10"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="16:24">
-      <c r="P19" s="10"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" spans="16:24">
-      <c r="P20" s="10"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="16:24">
-      <c r="P21" s="10"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" spans="16:24">
-      <c r="P22" s="10"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="16:24">
-      <c r="P23" s="10"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="16:24">
-      <c r="P24" s="10"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="16:24">
-      <c r="P25" s="10"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="16:24">
-      <c r="P26" s="10"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
     </row>
     <row r="27" spans="17:24">
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
     </row>
     <row r="28" spans="17:24">
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,13 +2868,13 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
@@ -2873,7 +2882,7 @@
     <col min="8" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="11" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="1"/>
@@ -2976,7 +2985,7 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:29">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3024,37 +3033,37 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -3065,338 +3074,338 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="A5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="17:27">
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="17:27">
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="17:27">
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
     </row>
     <row r="19" spans="17:27">
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
     </row>
     <row r="20" spans="17:27">
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
     </row>
     <row r="21" spans="17:27">
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
     </row>
     <row r="22" spans="17:27">
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
     </row>
     <row r="23" spans="17:27">
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
     </row>
     <row r="24" spans="17:27">
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
     </row>
     <row r="25" spans="17:27">
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3434,88 +3443,88 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3530,8 +3539,8 @@
   <sheetPr/>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3640,7 +3649,7 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="14.25" spans="1:29">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3688,37 +3697,37 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -3729,17 +3738,17 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:28">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3759,17 +3768,17 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:28">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3789,17 +3798,17 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:28">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3819,17 +3828,17 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:28">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3849,17 +3858,17 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" ht="14.25" spans="1:28">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3879,17 +3888,17 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" ht="14.25" spans="1:28">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3909,17 +3918,17 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:28">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3939,17 +3948,17 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:28">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3969,17 +3978,17 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" ht="14.25" spans="1:28">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3999,7 +4008,7 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:28">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4008,7 +4017,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4028,7 +4037,7 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" ht="14.25" spans="1:28">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4037,7 +4046,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4057,7 +4066,7 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="1:28">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4066,7 +4075,7 @@
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4086,7 +4095,7 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:28">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4095,7 +4104,7 @@
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4115,7 +4124,7 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" ht="14.25" spans="1:28">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4124,7 +4133,7 @@
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4144,7 +4153,7 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" ht="14.25" spans="1:28">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4153,7 +4162,7 @@
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4173,7 +4182,7 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" ht="14.25" spans="1:28">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4182,7 +4191,7 @@
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4202,7 +4211,7 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:28">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4211,7 +4220,7 @@
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4231,7 +4240,7 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:28">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4240,7 +4249,7 @@
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4260,7 +4269,7 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:28">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4269,7 +4278,7 @@
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4289,7 +4298,7 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:28">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4298,7 +4307,7 @@
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4329,7 +4338,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4410,7 +4419,7 @@
       <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -4508,166 +4517,166 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:16">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="1:16">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:16">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" ht="14.25" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" ht="14.25" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:16">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4681,8 +4690,8 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4762,7 +4771,7 @@
       <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -4860,151 +4869,151 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:16">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="1:16">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:16">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" ht="14.25" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" ht="14.25" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="9:9">
-      <c r="I14" s="6"/>
+      <c r="I14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="大货服务" sheetId="15" r:id="rId5"/>
     <sheet name="充值&amp;提现&amp;转换&amp;转账" sheetId="9" r:id="rId6"/>
     <sheet name="优惠&amp;赔偿" sheetId="11" r:id="rId7"/>
+    <sheet name="增值消费" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国内直发!#REF!</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -461,6 +462,18 @@
   </si>
   <si>
     <t>{bill.remark}</t>
+  </si>
+  <si>
+    <t>平台标记单</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>{bill.calcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.orderTime}</t>
   </si>
 </sst>
 </file>
@@ -472,8 +485,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1235,7 +1248,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1253,22 +1266,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,7 +1302,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,13 +1314,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1343,7 +1356,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
@@ -1760,8 +1773,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
@@ -2895,7 +2908,7 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" ht="13.5" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -4338,7 +4351,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4690,8 +4703,8 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5019,4 +5032,139 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="19.9" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -200,13 +200,13 @@
     <t>产品名称</t>
   </si>
   <si>
-    <t>客户下单重(g)</t>
-  </si>
-  <si>
-    <t>仓库核重重量(g)</t>
-  </si>
-  <si>
-    <t>计费重(g)</t>
+    <t>客户下单重(kg)</t>
+  </si>
+  <si>
+    <t>仓库核重重量(kg)</t>
+  </si>
+  <si>
+    <t>计费重(kg)</t>
   </si>
   <si>
     <t>规格(cm)</t>
@@ -485,8 +485,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1248,7 +1248,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1266,22 +1266,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,7 +1302,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1314,13 +1314,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -1356,7 +1356,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
@@ -2243,11 +2243,11 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:X2"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2882,7 +2882,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:AA2"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2908,7 +2908,7 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:29">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3552,8 +3552,8 @@
   <sheetPr/>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:AA2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4704,7 +4704,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5040,7 +5040,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
